--- a/Team-Data/2008-09/3-31-2008-09.xlsx
+++ b/Team-Data/2008-09/3-31-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,88 +733,88 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" t="n">
         <v>43</v>
       </c>
       <c r="F2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" t="n">
-        <v>0.573</v>
+        <v>0.581</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J2" t="n">
-        <v>78.90000000000001</v>
+        <v>79</v>
       </c>
       <c r="K2" t="n">
         <v>0.459</v>
       </c>
       <c r="L2" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M2" t="n">
         <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O2" t="n">
         <v>18.2</v>
       </c>
       <c r="P2" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.735</v>
+        <v>0.732</v>
       </c>
       <c r="R2" t="n">
         <v>10.7</v>
       </c>
       <c r="S2" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T2" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="U2" t="n">
         <v>20.4</v>
       </c>
       <c r="V2" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W2" t="n">
         <v>7.4</v>
       </c>
       <c r="X2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA2" t="n">
         <v>20.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
         <v>12</v>
@@ -765,7 +832,7 @@
         <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL2" t="n">
         <v>8</v>
@@ -774,13 +841,13 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
@@ -795,31 +862,31 @@
         <v>21</v>
       </c>
       <c r="AU2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AV2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY2" t="n">
         <v>7</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>6</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
       </c>
       <c r="BA2" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB2" t="n">
         <v>20</v>
       </c>
-      <c r="BB2" t="n">
-        <v>21</v>
-      </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -848,70 +915,70 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3" t="n">
         <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>0.743</v>
+        <v>0.747</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J3" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
         <v>0.485</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="O3" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="P3" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
       </c>
       <c r="S3" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T3" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U3" t="n">
         <v>22.7</v>
       </c>
       <c r="V3" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W3" t="n">
         <v>7.6</v>
       </c>
       <c r="X3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Y3" t="n">
         <v>4.7</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>4.8</v>
       </c>
       <c r="Z3" t="n">
         <v>23.2</v>
@@ -920,13 +987,13 @@
         <v>22.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="AC3" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -959,13 +1026,13 @@
         <v>1</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR3" t="n">
         <v>21</v>
@@ -983,10 +1050,10 @@
         <v>27</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" t="n">
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>0.459</v>
+        <v>0.452</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1048,7 +1115,7 @@
         <v>35</v>
       </c>
       <c r="J4" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K4" t="n">
         <v>0.457</v>
@@ -1060,7 +1127,7 @@
         <v>16.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.369</v>
+        <v>0.368</v>
       </c>
       <c r="O4" t="n">
         <v>17.7</v>
@@ -1072,16 +1139,16 @@
         <v>0.741</v>
       </c>
       <c r="R4" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S4" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T4" t="n">
         <v>39.6</v>
       </c>
       <c r="U4" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V4" t="n">
         <v>15.7</v>
@@ -1090,13 +1157,13 @@
         <v>7.1</v>
       </c>
       <c r="X4" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y4" t="n">
         <v>5.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA4" t="n">
         <v>20.9</v>
@@ -1105,16 +1172,16 @@
         <v>93.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.7</v>
+        <v>-0.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG4" t="n">
         <v>18</v>
@@ -1132,7 +1199,7 @@
         <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM4" t="n">
         <v>22</v>
@@ -1150,7 +1217,7 @@
         <v>27</v>
       </c>
       <c r="AR4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AS4" t="n">
         <v>24</v>
@@ -1165,7 +1232,7 @@
         <v>28</v>
       </c>
       <c r="AW4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX4" t="n">
         <v>14</v>
@@ -1183,7 +1250,7 @@
         <v>29</v>
       </c>
       <c r="BC4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -1215,22 +1282,22 @@
         <v>75</v>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" t="n">
-        <v>0.467</v>
+        <v>0.48</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
       </c>
       <c r="I5" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J5" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K5" t="n">
         <v>0.456</v>
@@ -1242,22 +1309,22 @@
         <v>15.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.381</v>
+        <v>0.383</v>
       </c>
       <c r="O5" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="P5" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.793</v>
+        <v>0.792</v>
       </c>
       <c r="R5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
         <v>42.4</v>
@@ -1275,25 +1342,25 @@
         <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB5" t="n">
         <v>101.9</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
@@ -1311,10 +1378,10 @@
         <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM5" t="n">
         <v>24</v>
@@ -1323,16 +1390,16 @@
         <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS5" t="n">
         <v>12</v>
@@ -1344,28 +1411,28 @@
         <v>15</v>
       </c>
       <c r="AV5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BB5" t="n">
         <v>9</v>
       </c>
       <c r="BC5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -1397,25 +1464,25 @@
         <v>73</v>
       </c>
       <c r="E6" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.836</v>
+        <v>0.822</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.468</v>
+        <v>0.469</v>
       </c>
       <c r="L6" t="n">
         <v>7.9</v>
@@ -1427,28 +1494,28 @@
         <v>0.389</v>
       </c>
       <c r="O6" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="P6" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R6" t="n">
         <v>10.7</v>
       </c>
       <c r="S6" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T6" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U6" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V6" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
@@ -1460,19 +1527,19 @@
         <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1493,7 +1560,7 @@
         <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL6" t="n">
         <v>3</v>
@@ -1505,16 +1572,16 @@
         <v>2</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
         <v>14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
@@ -1523,10 +1590,10 @@
         <v>10</v>
       </c>
       <c r="AU6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW6" t="n">
         <v>9</v>
@@ -1538,13 +1605,13 @@
         <v>4</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="n">
         <v>30</v>
       </c>
       <c r="G7" t="n">
-        <v>0.595</v>
+        <v>0.589</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
       </c>
       <c r="I7" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J7" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L7" t="n">
         <v>6.8</v>
@@ -1606,16 +1673,16 @@
         <v>19.7</v>
       </c>
       <c r="N7" t="n">
-        <v>0.346</v>
+        <v>0.344</v>
       </c>
       <c r="O7" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P7" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="R7" t="n">
         <v>11.2</v>
@@ -1627,7 +1694,7 @@
         <v>42.9</v>
       </c>
       <c r="U7" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V7" t="n">
         <v>12.9</v>
@@ -1639,22 +1706,22 @@
         <v>5.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z7" t="n">
         <v>19.3</v>
       </c>
       <c r="AA7" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1666,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI7" t="n">
         <v>8</v>
@@ -1675,10 +1742,10 @@
         <v>6</v>
       </c>
       <c r="AK7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AL7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AM7" t="n">
         <v>9</v>
@@ -1687,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="AO7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
         <v>28</v>
@@ -1699,10 +1766,10 @@
         <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU7" t="n">
         <v>9</v>
@@ -1711,13 +1778,13 @@
         <v>8</v>
       </c>
       <c r="AW7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY7" t="n">
         <v>8</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>7</v>
       </c>
       <c r="AZ7" t="n">
         <v>4</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -1758,49 +1825,49 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" t="n">
         <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>0.653</v>
+        <v>0.649</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J8" t="n">
         <v>79.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.47</v>
+        <v>0.468</v>
       </c>
       <c r="L8" t="n">
         <v>6.5</v>
       </c>
       <c r="M8" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="N8" t="n">
         <v>0.368</v>
       </c>
       <c r="O8" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="P8" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.758</v>
+        <v>0.76</v>
       </c>
       <c r="R8" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S8" t="n">
         <v>30.3</v>
@@ -1809,7 +1876,7 @@
         <v>41.5</v>
       </c>
       <c r="U8" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V8" t="n">
         <v>15.5</v>
@@ -1827,25 +1894,25 @@
         <v>22.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.9</v>
+        <v>103.8</v>
       </c>
       <c r="AC8" t="n">
         <v>3.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
         <v>27</v>
@@ -1854,22 +1921,22 @@
         <v>10</v>
       </c>
       <c r="AJ8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL8" t="n">
         <v>19</v>
       </c>
       <c r="AM8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP8" t="n">
         <v>1</v>
@@ -1884,22 +1951,22 @@
         <v>14</v>
       </c>
       <c r="AT8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV8" t="n">
         <v>25</v>
       </c>
       <c r="AW8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX8" t="n">
         <v>2</v>
       </c>
       <c r="AY8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ8" t="n">
         <v>26</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" t="n">
         <v>36</v>
       </c>
       <c r="F9" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" t="n">
-        <v>0.486</v>
+        <v>0.493</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
       </c>
       <c r="I9" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J9" t="n">
         <v>79.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L9" t="n">
         <v>4.5</v>
@@ -1970,31 +2037,31 @@
         <v>12.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="O9" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P9" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="R9" t="n">
         <v>11.5</v>
       </c>
       <c r="S9" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T9" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="U9" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="V9" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="W9" t="n">
         <v>6.2</v>
@@ -2003,22 +2070,22 @@
         <v>4.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z9" t="n">
         <v>20.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.7</v>
+        <v>94</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AE9" t="n">
         <v>16</v>
@@ -2039,7 +2106,7 @@
         <v>18</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL9" t="n">
         <v>28</v>
@@ -2054,19 +2121,19 @@
         <v>29</v>
       </c>
       <c r="AP9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU9" t="n">
         <v>16</v>
@@ -2078,16 +2145,16 @@
         <v>29</v>
       </c>
       <c r="AX9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ9" t="n">
         <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2221,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL10" t="n">
         <v>16</v>
@@ -2233,7 +2300,7 @@
         <v>12</v>
       </c>
       <c r="AO10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP10" t="n">
         <v>2</v>
@@ -2254,7 +2321,7 @@
         <v>14</v>
       </c>
       <c r="AV10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -2382,19 +2449,19 @@
         <v>3.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF11" t="n">
         <v>6</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>5</v>
       </c>
       <c r="AG11" t="n">
         <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>26</v>
@@ -2403,7 +2470,7 @@
         <v>21</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="n">
         <v>7</v>
@@ -2412,7 +2479,7 @@
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO11" t="n">
         <v>14</v>
@@ -2433,10 +2500,10 @@
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" t="n">
         <v>43</v>
       </c>
       <c r="G12" t="n">
-        <v>0.427</v>
+        <v>0.419</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2513,13 +2580,13 @@
         <v>7.9</v>
       </c>
       <c r="M12" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O12" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P12" t="n">
         <v>22.8</v>
@@ -2528,13 +2595,13 @@
         <v>0.805</v>
       </c>
       <c r="R12" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S12" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T12" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="U12" t="n">
         <v>21.7</v>
@@ -2552,10 +2619,10 @@
         <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB12" t="n">
         <v>104</v>
@@ -2564,19 +2631,19 @@
         <v>-1.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF12" t="n">
         <v>19</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>20</v>
       </c>
       <c r="AG12" t="n">
         <v>20</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
         <v>4</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AO12" t="n">
         <v>22</v>
@@ -2627,7 +2694,7 @@
         <v>10</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AZ12" t="n">
         <v>28</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2758,7 +2825,7 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
@@ -2791,7 +2858,7 @@
         <v>16</v>
       </c>
       <c r="AS13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT13" t="n">
         <v>26</v>
@@ -2800,7 +2867,7 @@
         <v>13</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -2853,25 +2920,25 @@
         <v>73</v>
       </c>
       <c r="E14" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>0.781</v>
+        <v>0.795</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="J14" t="n">
-        <v>85.40000000000001</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.475</v>
+        <v>0.476</v>
       </c>
       <c r="L14" t="n">
         <v>6.8</v>
@@ -2880,28 +2947,28 @@
         <v>18.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.362</v>
+        <v>0.365</v>
       </c>
       <c r="O14" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="P14" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.767</v>
+        <v>0.768</v>
       </c>
       <c r="R14" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V14" t="n">
         <v>13.6</v>
@@ -2913,22 +2980,22 @@
         <v>5.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.3</v>
+        <v>107.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2952,13 +3019,13 @@
         <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM14" t="n">
         <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
         <v>12</v>
@@ -2967,13 +3034,13 @@
         <v>11</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2985,16 +3052,16 @@
         <v>11</v>
       </c>
       <c r="AW14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX14" t="n">
         <v>9</v>
       </c>
       <c r="AY14" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA14" t="n">
         <v>8</v>
@@ -3003,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>-6.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
@@ -3140,7 +3207,7 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO15" t="n">
         <v>13</v>
@@ -3149,7 +3216,7 @@
         <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
         <v>22</v>
@@ -3167,16 +3234,16 @@
         <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX15" t="n">
         <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
         <v>9</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3313,7 +3380,7 @@
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
         <v>12</v>
@@ -3328,7 +3395,7 @@
         <v>27</v>
       </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ16" t="n">
         <v>20</v>
@@ -3343,7 +3410,7 @@
         <v>28</v>
       </c>
       <c r="AU16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV16" t="n">
         <v>3</v>
@@ -3352,7 +3419,7 @@
         <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
         <v>5</v>
@@ -3364,7 +3431,7 @@
         <v>25</v>
       </c>
       <c r="BB16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -3396,25 +3463,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E17" t="n">
         <v>32</v>
       </c>
       <c r="F17" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G17" t="n">
-        <v>0.432</v>
+        <v>0.427</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J17" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K17" t="n">
         <v>0.443</v>
@@ -3423,16 +3490,16 @@
         <v>6.1</v>
       </c>
       <c r="M17" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="N17" t="n">
         <v>0.362</v>
       </c>
       <c r="O17" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="P17" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q17" t="n">
         <v>0.781</v>
@@ -3441,40 +3508,40 @@
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U17" t="n">
         <v>21.4</v>
       </c>
       <c r="V17" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W17" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X17" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y17" t="n">
         <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="AA17" t="n">
         <v>22.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1</v>
+        <v>-1.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3510,7 +3577,7 @@
         <v>7</v>
       </c>
       <c r="AP17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
@@ -3522,7 +3589,7 @@
         <v>23</v>
       </c>
       <c r="AT17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU17" t="n">
         <v>10</v>
@@ -3537,7 +3604,7 @@
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" t="n">
         <v>21</v>
       </c>
       <c r="F18" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18" t="n">
-        <v>0.28</v>
+        <v>0.284</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
@@ -3602,13 +3669,13 @@
         <v>0.441</v>
       </c>
       <c r="L18" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M18" t="n">
         <v>18.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="O18" t="n">
         <v>18.8</v>
@@ -3617,19 +3684,19 @@
         <v>24.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R18" t="n">
         <v>11.9</v>
       </c>
       <c r="S18" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T18" t="n">
         <v>41.5</v>
       </c>
       <c r="U18" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V18" t="n">
         <v>14.2</v>
@@ -3638,37 +3705,37 @@
         <v>6.2</v>
       </c>
       <c r="X18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y18" t="n">
         <v>6</v>
       </c>
       <c r="Z18" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA18" t="n">
         <v>20.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>-5</v>
+        <v>-4.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
       </c>
       <c r="AF18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
         <v>19</v>
@@ -3692,13 +3759,13 @@
         <v>18</v>
       </c>
       <c r="AP18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AQ18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS18" t="n">
         <v>19</v>
@@ -3722,13 +3789,13 @@
         <v>30</v>
       </c>
       <c r="AZ18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
         <v>21</v>
@@ -3868,7 +3935,7 @@
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO19" t="n">
         <v>15</v>
@@ -3889,7 +3956,7 @@
         <v>25</v>
       </c>
       <c r="AU19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV19" t="n">
         <v>9</v>
@@ -3898,10 +3965,10 @@
         <v>22</v>
       </c>
       <c r="AX19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -3942,52 +4009,52 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" t="n">
         <v>27</v>
       </c>
       <c r="G20" t="n">
-        <v>0.63</v>
+        <v>0.625</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
       </c>
       <c r="I20" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="J20" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L20" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="N20" t="n">
-        <v>0.369</v>
+        <v>0.368</v>
       </c>
       <c r="O20" t="n">
         <v>18.6</v>
       </c>
       <c r="P20" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="R20" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S20" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T20" t="n">
         <v>40</v>
@@ -3996,16 +4063,16 @@
         <v>19.6</v>
       </c>
       <c r="V20" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W20" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X20" t="n">
         <v>4.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z20" t="n">
         <v>20.2</v>
@@ -4014,22 +4081,22 @@
         <v>20.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="AC20" t="n">
         <v>2.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH20" t="n">
         <v>28</v>
@@ -4041,22 +4108,22 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM20" t="n">
         <v>13</v>
       </c>
       <c r="AN20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO20" t="n">
         <v>20</v>
       </c>
       <c r="AP20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
         <v>3</v>
@@ -4077,7 +4144,7 @@
         <v>5</v>
       </c>
       <c r="AW20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX20" t="n">
         <v>23</v>
@@ -4089,7 +4156,7 @@
         <v>9</v>
       </c>
       <c r="BA20" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" t="n">
         <v>29</v>
       </c>
       <c r="F21" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G21" t="n">
-        <v>0.387</v>
+        <v>0.392</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4148,13 +4215,13 @@
         <v>0.445</v>
       </c>
       <c r="L21" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="M21" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O21" t="n">
         <v>18.5</v>
@@ -4163,25 +4230,25 @@
         <v>23.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.786</v>
+        <v>0.787</v>
       </c>
       <c r="R21" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S21" t="n">
         <v>31.1</v>
       </c>
       <c r="T21" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U21" t="n">
         <v>21.2</v>
       </c>
       <c r="V21" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W21" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X21" t="n">
         <v>2.4</v>
@@ -4202,19 +4269,19 @@
         <v>-2.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
       </c>
       <c r="AF21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG21" t="n">
         <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
         <v>6</v>
@@ -4259,7 +4326,7 @@
         <v>18</v>
       </c>
       <c r="AW21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,10 +4335,10 @@
         <v>22</v>
       </c>
       <c r="AZ21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB21" t="n">
         <v>4</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" t="n">
         <v>53</v>
       </c>
       <c r="G22" t="n">
-        <v>0.284</v>
+        <v>0.274</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4324,49 +4391,49 @@
         <v>36.5</v>
       </c>
       <c r="J22" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K22" t="n">
         <v>0.446</v>
       </c>
       <c r="L22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.348</v>
+        <v>0.346</v>
       </c>
       <c r="O22" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="P22" t="n">
         <v>25.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.786</v>
+        <v>0.787</v>
       </c>
       <c r="R22" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S22" t="n">
         <v>30.4</v>
       </c>
       <c r="T22" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U22" t="n">
         <v>20.1</v>
       </c>
       <c r="V22" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="W22" t="n">
         <v>7.3</v>
       </c>
       <c r="X22" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y22" t="n">
         <v>4.9</v>
@@ -4375,28 +4442,28 @@
         <v>20.4</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>-5.7</v>
+        <v>-5.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AE22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF22" t="n">
         <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
         <v>17</v>
@@ -4414,7 +4481,7 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO22" t="n">
         <v>6</v>
@@ -4450,7 +4517,7 @@
         <v>17</v>
       </c>
       <c r="AZ22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA22" t="n">
         <v>19</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -4566,10 +4633,10 @@
         <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>3</v>
@@ -4578,7 +4645,7 @@
         <v>3</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI23" t="n">
         <v>25</v>
@@ -4596,7 +4663,7 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO23" t="n">
         <v>8</v>
@@ -4626,7 +4693,7 @@
         <v>21</v>
       </c>
       <c r="AX23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY23" t="n">
         <v>2</v>
@@ -4641,7 +4708,7 @@
         <v>8</v>
       </c>
       <c r="BC23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" t="n">
         <v>35</v>
       </c>
       <c r="G24" t="n">
-        <v>0.521</v>
+        <v>0.514</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
@@ -4700,7 +4767,7 @@
         <v>13.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.318</v>
+        <v>0.32</v>
       </c>
       <c r="O24" t="n">
         <v>19.8</v>
@@ -4709,22 +4776,22 @@
         <v>26.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.748</v>
+        <v>0.747</v>
       </c>
       <c r="R24" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S24" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="T24" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U24" t="n">
         <v>20.3</v>
       </c>
       <c r="V24" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W24" t="n">
         <v>8.1</v>
@@ -4745,10 +4812,10 @@
         <v>97.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4763,13 +4830,13 @@
         <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ24" t="n">
         <v>17</v>
       </c>
       <c r="AK24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP24" t="n">
         <v>6</v>
@@ -4793,16 +4860,16 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AU24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW24" t="n">
         <v>4</v>
@@ -4811,10 +4878,10 @@
         <v>11</v>
       </c>
       <c r="AY24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4957,7 +5024,7 @@
         <v>15</v>
       </c>
       <c r="AM25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN25" t="n">
         <v>6</v>
@@ -4969,10 +5036,10 @@
         <v>5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS25" t="n">
         <v>10</v>
@@ -5005,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="BC25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -5037,25 +5104,25 @@
         <v>73</v>
       </c>
       <c r="E26" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" t="n">
-        <v>0.644</v>
+        <v>0.63</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J26" t="n">
-        <v>79.2</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.465</v>
+        <v>0.461</v>
       </c>
       <c r="L26" t="n">
         <v>7.2</v>
@@ -5064,28 +5131,28 @@
         <v>19.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.38</v>
+        <v>0.379</v>
       </c>
       <c r="O26" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P26" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.771</v>
+        <v>0.768</v>
       </c>
       <c r="R26" t="n">
         <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T26" t="n">
-        <v>41.3</v>
+        <v>41.5</v>
       </c>
       <c r="U26" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="V26" t="n">
         <v>12.8</v>
@@ -5097,28 +5164,28 @@
         <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="AA26" t="n">
         <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
         <v>8</v>
@@ -5127,10 +5194,10 @@
         <v>10</v>
       </c>
       <c r="AI26" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AJ26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK26" t="n">
         <v>8</v>
@@ -5139,19 +5206,19 @@
         <v>9</v>
       </c>
       <c r="AM26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN26" t="n">
         <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5163,7 +5230,7 @@
         <v>16</v>
       </c>
       <c r="AU26" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AV26" t="n">
         <v>6</v>
@@ -5178,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA26" t="n">
         <v>12</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -5216,37 +5283,37 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" t="n">
-        <v>0.219</v>
+        <v>0.222</v>
       </c>
       <c r="H27" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I27" t="n">
         <v>36.4</v>
       </c>
       <c r="J27" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K27" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M27" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.366</v>
+        <v>0.362</v>
       </c>
       <c r="O27" t="n">
         <v>20.6</v>
@@ -5261,16 +5328,16 @@
         <v>10</v>
       </c>
       <c r="S27" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="T27" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="U27" t="n">
         <v>19.8</v>
       </c>
       <c r="V27" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="W27" t="n">
         <v>7.1</v>
@@ -5288,19 +5355,19 @@
         <v>21.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
       </c>
       <c r="AF27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG27" t="n">
         <v>30</v>
@@ -5318,13 +5385,13 @@
         <v>23</v>
       </c>
       <c r="AL27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO27" t="n">
         <v>4</v>
@@ -5345,13 +5412,13 @@
         <v>30</v>
       </c>
       <c r="AU27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV27" t="n">
         <v>26</v>
       </c>
       <c r="AW27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX27" t="n">
         <v>27</v>
@@ -5366,7 +5433,7 @@
         <v>11</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" t="n">
         <v>48</v>
       </c>
       <c r="F28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G28" t="n">
-        <v>0.649</v>
+        <v>0.658</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
@@ -5419,16 +5486,16 @@
         <v>79.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L28" t="n">
         <v>7.7</v>
       </c>
       <c r="M28" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.388</v>
+        <v>0.389</v>
       </c>
       <c r="O28" t="n">
         <v>15</v>
@@ -5458,13 +5525,13 @@
         <v>5.8</v>
       </c>
       <c r="X28" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y28" t="n">
         <v>4.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA28" t="n">
         <v>18.3</v>
@@ -5476,16 +5543,16 @@
         <v>3.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AE28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF28" t="n">
         <v>5</v>
       </c>
       <c r="AG28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH28" t="n">
         <v>4</v>
@@ -5506,7 +5573,7 @@
         <v>8</v>
       </c>
       <c r="AN28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5524,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5688,7 +5755,7 @@
         <v>23</v>
       </c>
       <c r="AN29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO29" t="n">
         <v>16</v>
@@ -5709,7 +5776,7 @@
         <v>23</v>
       </c>
       <c r="AU29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV29" t="n">
         <v>10</v>
@@ -5718,7 +5785,7 @@
         <v>28</v>
       </c>
       <c r="AX29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
@@ -5727,7 +5794,7 @@
         <v>3</v>
       </c>
       <c r="BA29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB29" t="n">
         <v>16</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E30" t="n">
         <v>46</v>
       </c>
       <c r="F30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G30" t="n">
-        <v>0.622</v>
+        <v>0.63</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
@@ -5795,25 +5862,25 @@
         <v>0.349</v>
       </c>
       <c r="O30" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="P30" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R30" t="n">
         <v>11.5</v>
       </c>
       <c r="S30" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T30" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U30" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="V30" t="n">
         <v>14.9</v>
@@ -5837,19 +5904,19 @@
         <v>103.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="AD30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE30" t="n">
         <v>8</v>
       </c>
-      <c r="AE30" t="n">
-        <v>9</v>
-      </c>
       <c r="AF30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH30" t="n">
         <v>4</v>
@@ -5879,16 +5946,16 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -5897,10 +5964,10 @@
         <v>22</v>
       </c>
       <c r="AW30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX30" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AY30" t="n">
         <v>19</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
@@ -6034,7 +6101,7 @@
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI31" t="n">
         <v>21</v>
@@ -6079,7 +6146,7 @@
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX31" t="n">
         <v>24</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-31-2008-09</t>
+          <t>2009-03-31</t>
         </is>
       </c>
     </row>
